--- a/clean/unit/clean_unit/08026C.xlsx
+++ b/clean/unit/clean_unit/08026C.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>893203</v>
+        <v>893286</v>
       </c>
     </row>
     <row r="4">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>911366</v>
+        <v>888834</v>
       </c>
     </row>
     <row r="9">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>106249</v>
+        <v>141608</v>
       </c>
     </row>
     <row r="13">
@@ -1132,7 +1132,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/HP</t>
+          <t>mg/LFEU</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D45">
@@ -1147,16 +1152,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mg/LFEU</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>g/l;mg/l</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.3000000000000007</t>
         </is>
       </c>
       <c r="D47">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9.3000000000000007</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -1197,11 +1197,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>/sec</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>sec</t>
         </is>
       </c>
       <c r="D49">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -1212,16 +1217,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/sec</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>sec</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="D50">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -1232,11 +1232,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>mg/dl</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>mg/dl</t>
         </is>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -1247,16 +1252,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mg/dl</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>mg/dl</t>
+          <t>”</t>
         </is>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -1267,11 +1267,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>”</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.8000000000000007</t>
         </is>
       </c>
       <c r="D54">
@@ -1297,7 +1297,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9.8000000000000007</t>
+          <t>SECOND</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>sec</t>
         </is>
       </c>
       <c r="D55">
@@ -1312,16 +1317,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SECOND</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>sec</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>9.6999999999999993</t>
         </is>
       </c>
       <c r="D57">
@@ -1347,11 +1347,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9.6999999999999993</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D59">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>IU/ml</t>
         </is>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>IU/ml</t>
+          <t>INR</t>
         </is>
       </c>
       <c r="D61">
@@ -1407,7 +1407,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INR</t>
+          <t>x10*3/uL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D62">
@@ -1422,16 +1427,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>x10*3/uL</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1000/ul</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -1442,11 +1442,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -1457,11 +1457,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="D66">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="D67">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="D68">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1532,25 +1532,10 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="D70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>08026C</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>10.8</t>
-        </is>
-      </c>
-      <c r="D71">
         <v>6</v>
       </c>
     </row>

--- a/clean/unit/clean_unit/08026C.xlsx
+++ b/clean/unit/clean_unit/08026C.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
